--- a/biology/Zoologie/Gnaphosidae/Gnaphosidae.xlsx
+++ b/biology/Zoologie/Gnaphosidae/Gnaphosidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Gnaphosidae sont une famille d'araignées aranéomorphes[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Gnaphosidae sont une famille d'araignées aranéomorphes.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de cette famille se rencontrent sur tous les continents sauf aux pôles[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de cette famille se rencontrent sur tous les continents sauf aux pôles.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Presque toutes les espèces de cette famille sont nocturnes. Ce sont des araignées chasseresses, qui vivent sous les pierres dans des loges de soie, mais ne construisent pas de toile pour attraper leurs proies.
 Elles ont des filières antérieures longues et bien visibles; les yeux médians postérieurs sont rapprochés.
@@ -574,9 +590,11 @@
           <t>Paléontologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette famille est connue depuis le Crétacé[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille est connue depuis le Crétacé.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 25.0, 13/03/2024)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 25.0, 13/03/2024) :
 Afrodrassex Haddad &amp; Booysen, 2022
 Algarvezelotes Wunderlich, 2023
 Allomicythus Ono, 2009
@@ -761,7 +781,7 @@
 Zelotibia Russell-Smith &amp; Murphy, 2005
 Zelowan Murphy &amp; Russell-Smith, 2010
 Zimiromus Banks, 1914
-Selon World Spider Catalog (version 23.5, 2023)[2] :
+Selon World Spider Catalog (version 23.5, 2023) :
 † Captrix Petrunkevitch, 1942
 † Drassyllinus Wunderlich, 1988
 † Eognaphosops Wunderlich, 2011
@@ -795,12 +815,14 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette famille a été décrite par Banks en 1892 comme tribu des Drassidae. Platnick en 1990 la redéfinie[3]. 
-Les Ammoxenidae ont été placés en synonymie par Azevedo, Bougie, Carboni, Hedin et Ramírez en 2022[4].
-Les Prodidomidae, placés en synonymie par Azevedo, Griswold et Santos en 2018[5] ont été relevés de synonymie par Azevedo, Bougie, Carboni, Hedin et Ramírez en 2022[4].
-Cette famille rassemble 2 474 espèces dans 153 genres[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille a été décrite par Banks en 1892 comme tribu des Drassidae. Platnick en 1990 la redéfinie. 
+Les Ammoxenidae ont été placés en synonymie par Azevedo, Bougie, Carboni, Hedin et Ramírez en 2022.
+Les Prodidomidae, placés en synonymie par Azevedo, Griswold et Santos en 2018 ont été relevés de synonymie par Azevedo, Bougie, Carboni, Hedin et Ramírez en 2022.
+Cette famille rassemble 2 474 espèces dans 153 genres.
 </t>
         </is>
       </c>
@@ -829,7 +851,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Banks, 1892 : « A classification of North American spiders. » Canadian Entomologist, vol. 24, p. 88-97 (texte intégral).</t>
         </is>
